--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2345.88338143083</v>
+        <v>2431.167334380556</v>
       </c>
       <c r="AB2" t="n">
-        <v>3209.741135544459</v>
+        <v>3326.430402432745</v>
       </c>
       <c r="AC2" t="n">
-        <v>2903.407946467952</v>
+        <v>3008.96055349883</v>
       </c>
       <c r="AD2" t="n">
-        <v>2345883.381430829</v>
+        <v>2431167.334380556</v>
       </c>
       <c r="AE2" t="n">
-        <v>3209741.135544459</v>
+        <v>3326430.402432745</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.053723219871459e-06</v>
+        <v>1.949663836705641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.42083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2903407.946467952</v>
+        <v>3008960.55349883</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>770.3949903480383</v>
+        <v>819.1773928027508</v>
       </c>
       <c r="AB3" t="n">
-        <v>1054.088413222448</v>
+        <v>1120.834648388693</v>
       </c>
       <c r="AC3" t="n">
-        <v>953.4876944868768</v>
+        <v>1013.863762647784</v>
       </c>
       <c r="AD3" t="n">
-        <v>770394.9903480383</v>
+        <v>819177.3928027508</v>
       </c>
       <c r="AE3" t="n">
-        <v>1054088.413222448</v>
+        <v>1120834.648388693</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.981110525523247e-06</v>
+        <v>3.665573155539609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.670833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>953487.6944868767</v>
+        <v>1013863.762647784</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>566.4612537047889</v>
+        <v>603.133396400395</v>
       </c>
       <c r="AB4" t="n">
-        <v>775.057277825665</v>
+        <v>825.233721322546</v>
       </c>
       <c r="AC4" t="n">
-        <v>701.0868990297042</v>
+        <v>746.4745731823239</v>
       </c>
       <c r="AD4" t="n">
-        <v>566461.2537047889</v>
+        <v>603133.396400395</v>
       </c>
       <c r="AE4" t="n">
-        <v>775057.277825665</v>
+        <v>825233.721322546</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.3287531162686e-06</v>
+        <v>4.308802966265006e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.526041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>701086.8990297043</v>
+        <v>746474.5731823238</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>488.0863297311435</v>
+        <v>524.5878802261574</v>
       </c>
       <c r="AB5" t="n">
-        <v>667.821249187307</v>
+        <v>717.7642809093411</v>
       </c>
       <c r="AC5" t="n">
-        <v>604.0853264578795</v>
+        <v>649.261865327848</v>
       </c>
       <c r="AD5" t="n">
-        <v>488086.3297311434</v>
+        <v>524587.8802261574</v>
       </c>
       <c r="AE5" t="n">
-        <v>667821.249187307</v>
+        <v>717764.2809093411</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.486745951256942e-06</v>
+        <v>4.601131075797362e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.110416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>604085.3264578795</v>
+        <v>649261.865327848</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>488.7574883290823</v>
+        <v>525.2590388240963</v>
       </c>
       <c r="AB6" t="n">
-        <v>668.7395579904344</v>
+        <v>718.6825897124685</v>
       </c>
       <c r="AC6" t="n">
-        <v>604.915993157691</v>
+        <v>650.0925320276594</v>
       </c>
       <c r="AD6" t="n">
-        <v>488757.4883290823</v>
+        <v>525259.0388240962</v>
       </c>
       <c r="AE6" t="n">
-        <v>668739.5579904343</v>
+        <v>718682.5897124684</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.490247177517072e-06</v>
+        <v>4.607609261050157e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.102083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>604915.993157691</v>
+        <v>650092.5320276595</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1392.066130368678</v>
+        <v>1462.477810964389</v>
       </c>
       <c r="AB2" t="n">
-        <v>1904.686293193741</v>
+        <v>2001.026660928906</v>
       </c>
       <c r="AC2" t="n">
-        <v>1722.905706615332</v>
+        <v>1810.051484868409</v>
       </c>
       <c r="AD2" t="n">
-        <v>1392066.130368678</v>
+        <v>1462477.810964389</v>
       </c>
       <c r="AE2" t="n">
-        <v>1904686.293193741</v>
+        <v>2001026.660928906</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.397023850494256e-06</v>
+        <v>2.662943065083836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.253125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1722905.706615332</v>
+        <v>1810051.484868409</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>575.0252869361501</v>
+        <v>621.9947946124475</v>
       </c>
       <c r="AB3" t="n">
-        <v>786.7749659112944</v>
+        <v>851.0407184624383</v>
       </c>
       <c r="AC3" t="n">
-        <v>711.6862674103198</v>
+        <v>769.8185867355326</v>
       </c>
       <c r="AD3" t="n">
-        <v>575025.2869361502</v>
+        <v>621994.7946124475</v>
       </c>
       <c r="AE3" t="n">
-        <v>786774.9659112945</v>
+        <v>851040.7184624383</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.261316341774433e-06</v>
+        <v>4.310417941797148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.952083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>711686.2674103199</v>
+        <v>769818.5867355326</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>458.3891214456765</v>
+        <v>493.5950064978076</v>
       </c>
       <c r="AB4" t="n">
-        <v>627.188218662767</v>
+        <v>675.3584637651237</v>
       </c>
       <c r="AC4" t="n">
-        <v>567.3302553377854</v>
+        <v>610.9031998549368</v>
       </c>
       <c r="AD4" t="n">
-        <v>458389.1214456765</v>
+        <v>493595.0064978076</v>
       </c>
       <c r="AE4" t="n">
-        <v>627188.218662767</v>
+        <v>675358.4637651237</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.521192659215408e-06</v>
+        <v>4.805782310175064e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.235416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>567330.2553377853</v>
+        <v>610903.1998549368</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>458.9593074907726</v>
+        <v>494.1651925429038</v>
       </c>
       <c r="AB5" t="n">
-        <v>627.9683723645006</v>
+        <v>676.1386174668573</v>
       </c>
       <c r="AC5" t="n">
-        <v>568.035952265178</v>
+        <v>611.6088967823296</v>
       </c>
       <c r="AD5" t="n">
-        <v>458959.3074907726</v>
+        <v>494165.1925429038</v>
       </c>
       <c r="AE5" t="n">
-        <v>627968.3723645007</v>
+        <v>676138.6174668573</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.526474698187786e-06</v>
+        <v>4.815850691646159e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.222916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>568035.952265178</v>
+        <v>611608.8967823295</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.3792519103292</v>
+        <v>452.7696688924528</v>
       </c>
       <c r="AB2" t="n">
-        <v>576.5496824042956</v>
+        <v>619.4994357666967</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.5245899081903</v>
+        <v>560.3752790900414</v>
       </c>
       <c r="AD2" t="n">
-        <v>421379.2519103292</v>
+        <v>452769.6688924528</v>
       </c>
       <c r="AE2" t="n">
-        <v>576549.6824042955</v>
+        <v>619499.4357666967</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.47092733839931e-06</v>
+        <v>5.262428581855706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.098958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>521524.5899081903</v>
+        <v>560375.2790900414</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>419.054260795847</v>
+        <v>450.4446777779707</v>
       </c>
       <c r="AB3" t="n">
-        <v>573.3685269900922</v>
+        <v>616.3182803524933</v>
       </c>
       <c r="AC3" t="n">
-        <v>518.6470395019387</v>
+        <v>557.49772868379</v>
       </c>
       <c r="AD3" t="n">
-        <v>419054.260795847</v>
+        <v>450444.6777779707</v>
       </c>
       <c r="AE3" t="n">
-        <v>573368.5269900921</v>
+        <v>616318.2803524933</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.487430499250065e-06</v>
+        <v>5.297575995542195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.052083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>518647.0395019387</v>
+        <v>557497.72868379</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>644.3136523079987</v>
+        <v>688.1155851467796</v>
       </c>
       <c r="AB2" t="n">
-        <v>881.5783642000007</v>
+        <v>941.5101011149151</v>
       </c>
       <c r="AC2" t="n">
-        <v>797.4417624237572</v>
+        <v>851.6536984822333</v>
       </c>
       <c r="AD2" t="n">
-        <v>644313.6523079987</v>
+        <v>688115.5851467797</v>
       </c>
       <c r="AE2" t="n">
-        <v>881578.3642000007</v>
+        <v>941510.1011149151</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.062757102636868e-06</v>
+        <v>4.188110078794764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.135416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>797441.7624237571</v>
+        <v>851653.6984822332</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>418.0212070849808</v>
+        <v>451.0219360781534</v>
       </c>
       <c r="AB3" t="n">
-        <v>571.9550573277718</v>
+        <v>617.1081106256422</v>
       </c>
       <c r="AC3" t="n">
-        <v>517.3684694003732</v>
+        <v>558.2121786642032</v>
       </c>
       <c r="AD3" t="n">
-        <v>418021.2070849808</v>
+        <v>451021.9360781534</v>
       </c>
       <c r="AE3" t="n">
-        <v>571955.0573277718</v>
+        <v>617108.1106256422</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.543487124057394e-06</v>
+        <v>5.164158225867833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.597916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>517368.4694003732</v>
+        <v>558212.1786642032</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>417.6775511859</v>
+        <v>457.8635043738739</v>
       </c>
       <c r="AB2" t="n">
-        <v>571.4848521656211</v>
+        <v>626.4690461965381</v>
       </c>
       <c r="AC2" t="n">
-        <v>516.9431399589611</v>
+        <v>566.6797196823685</v>
       </c>
       <c r="AD2" t="n">
-        <v>417677.5511859</v>
+        <v>457863.5043738739</v>
       </c>
       <c r="AE2" t="n">
-        <v>571484.8521656211</v>
+        <v>626469.0461965381</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.377901715263632e-06</v>
+        <v>5.29512265851974e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.661458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>516943.1399589611</v>
+        <v>566679.7196823684</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1572.070431249383</v>
+        <v>1655.040361833382</v>
       </c>
       <c r="AB2" t="n">
-        <v>2150.976118888012</v>
+        <v>2264.499238288042</v>
       </c>
       <c r="AC2" t="n">
-        <v>1945.689977015283</v>
+        <v>2048.378609230473</v>
       </c>
       <c r="AD2" t="n">
-        <v>1572070.431249383</v>
+        <v>1655040.361833382</v>
       </c>
       <c r="AE2" t="n">
-        <v>2150976.118888013</v>
+        <v>2264499.238288042</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305506944341025e-06</v>
+        <v>2.468405099494815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.93333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1945689.977015283</v>
+        <v>2048378.609230472</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>630.0728854614517</v>
+        <v>665.7046659527783</v>
       </c>
       <c r="AB3" t="n">
-        <v>862.0935187422621</v>
+        <v>910.8464927737068</v>
       </c>
       <c r="AC3" t="n">
-        <v>779.8165232693527</v>
+        <v>823.916581884465</v>
       </c>
       <c r="AD3" t="n">
-        <v>630072.8854614517</v>
+        <v>665704.6659527783</v>
       </c>
       <c r="AE3" t="n">
-        <v>862093.518742262</v>
+        <v>910846.4927737068</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.188058952424012e-06</v>
+        <v>4.137102372048246e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.119791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>779816.5232693527</v>
+        <v>823916.5818844651</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>471.2176951956607</v>
+        <v>506.7641348324157</v>
       </c>
       <c r="AB4" t="n">
-        <v>644.7408392242261</v>
+        <v>693.3770461334731</v>
       </c>
       <c r="AC4" t="n">
-        <v>583.2076784281164</v>
+        <v>627.2021140112901</v>
       </c>
       <c r="AD4" t="n">
-        <v>471217.6951956607</v>
+        <v>506764.1348324157</v>
       </c>
       <c r="AE4" t="n">
-        <v>644740.8392242261</v>
+        <v>693377.046133473</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.501984840403369e-06</v>
+        <v>4.730662035679776e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.227083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>583207.6784281164</v>
+        <v>627202.11401129</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>464.5530331729144</v>
+        <v>500.0994728096694</v>
       </c>
       <c r="AB5" t="n">
-        <v>635.6219546205673</v>
+        <v>684.2581615298144</v>
       </c>
       <c r="AC5" t="n">
-        <v>574.9590873725959</v>
+        <v>618.9535229557695</v>
       </c>
       <c r="AD5" t="n">
-        <v>464553.0331729144</v>
+        <v>500099.4728096694</v>
       </c>
       <c r="AE5" t="n">
-        <v>635621.9546205673</v>
+        <v>684258.1615298144</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.521876285425406e-06</v>
+        <v>4.76827205724385e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.177083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>574959.0873725959</v>
+        <v>618953.5229557694</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>435.9432466973057</v>
+        <v>475.0563512904802</v>
       </c>
       <c r="AB2" t="n">
-        <v>596.4767825899402</v>
+        <v>649.9930578427128</v>
       </c>
       <c r="AC2" t="n">
-        <v>539.5498756199777</v>
+        <v>587.95863267319</v>
       </c>
       <c r="AD2" t="n">
-        <v>435943.2466973057</v>
+        <v>475056.3512904802</v>
       </c>
       <c r="AE2" t="n">
-        <v>596476.7825899401</v>
+        <v>649993.0578427128</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.27312939171184e-06</v>
+        <v>5.211300857759028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.202083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>539549.8756199777</v>
+        <v>587958.63267319</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>954.9524481535042</v>
+        <v>1011.928901486789</v>
       </c>
       <c r="AB2" t="n">
-        <v>1306.608069092285</v>
+        <v>1384.565766166603</v>
       </c>
       <c r="AC2" t="n">
-        <v>1181.907228814059</v>
+        <v>1252.42475269392</v>
       </c>
       <c r="AD2" t="n">
-        <v>954952.4481535042</v>
+        <v>1011928.901486789</v>
       </c>
       <c r="AE2" t="n">
-        <v>1306608.069092285</v>
+        <v>1384565.766166603</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.697169264323959e-06</v>
+        <v>3.326428303307432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.542708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1181907.228814059</v>
+        <v>1252424.75269392</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.2380833155388</v>
+        <v>484.3387039694892</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.0356086946896</v>
+        <v>662.6935822866316</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.2420348122748</v>
+        <v>599.447036889479</v>
       </c>
       <c r="AD3" t="n">
-        <v>450238.0833155388</v>
+        <v>484338.7039694893</v>
       </c>
       <c r="AE3" t="n">
-        <v>616035.6086946896</v>
+        <v>662693.5822866316</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.507270214129532e-06</v>
+        <v>4.914214969384548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.460416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>557242.0348122749</v>
+        <v>599447.036889479</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>437.6940409900288</v>
+        <v>471.7946616439791</v>
       </c>
       <c r="AB4" t="n">
-        <v>598.8722965808366</v>
+        <v>645.5302701727785</v>
       </c>
       <c r="AC4" t="n">
-        <v>541.7167651177081</v>
+        <v>583.9217671949123</v>
       </c>
       <c r="AD4" t="n">
-        <v>437694.0409900288</v>
+        <v>471794.6616439791</v>
       </c>
       <c r="AE4" t="n">
-        <v>598872.2965808366</v>
+        <v>645530.2701727785</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.544121255416273e-06</v>
+        <v>4.986442501027596e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.366666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>541716.765117708</v>
+        <v>583921.7671949123</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1226.752505417089</v>
+        <v>1296.542428158546</v>
       </c>
       <c r="AB2" t="n">
-        <v>1678.496898412568</v>
+        <v>1773.98654962152</v>
       </c>
       <c r="AC2" t="n">
-        <v>1518.303510213264</v>
+        <v>1604.679763131402</v>
       </c>
       <c r="AD2" t="n">
-        <v>1226752.505417089</v>
+        <v>1296542.428158546</v>
       </c>
       <c r="AE2" t="n">
-        <v>1678496.898412568</v>
+        <v>1773986.54962152</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.490581198133287e-06</v>
+        <v>2.865945062486084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1518303.510213264</v>
+        <v>1604679.763131402</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>532.109354313733</v>
+        <v>578.6075225231797</v>
       </c>
       <c r="AB3" t="n">
-        <v>728.0554935799798</v>
+        <v>791.6763386785489</v>
       </c>
       <c r="AC3" t="n">
-        <v>658.5708991050087</v>
+        <v>716.1198600397871</v>
       </c>
       <c r="AD3" t="n">
-        <v>532109.3543137329</v>
+        <v>578607.5225231797</v>
       </c>
       <c r="AE3" t="n">
-        <v>728055.4935799799</v>
+        <v>791676.3386785488</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.340992507207286e-06</v>
+        <v>4.501033506762179e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.779166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>658570.8991050087</v>
+        <v>716119.8600397871</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.0955797384911</v>
+        <v>485.9479601904843</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.208873130645</v>
+        <v>664.8954376435709</v>
       </c>
       <c r="AC4" t="n">
-        <v>558.3033245371496</v>
+        <v>601.4387502614753</v>
       </c>
       <c r="AD4" t="n">
-        <v>451095.5797384911</v>
+        <v>485947.9601904842</v>
       </c>
       <c r="AE4" t="n">
-        <v>617208.873130645</v>
+        <v>664895.4376435708</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.531123878351025e-06</v>
+        <v>4.866599679900224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.269791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>558303.3245371496</v>
+        <v>601438.7502614753</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>451.9186467312853</v>
+        <v>486.7710271832785</v>
       </c>
       <c r="AB5" t="n">
-        <v>618.3350297013392</v>
+        <v>666.021594214265</v>
       </c>
       <c r="AC5" t="n">
-        <v>559.3220023053075</v>
+        <v>602.4574280296331</v>
       </c>
       <c r="AD5" t="n">
-        <v>451918.6467312853</v>
+        <v>486771.0271832785</v>
       </c>
       <c r="AE5" t="n">
-        <v>618335.0297013392</v>
+        <v>666021.594214265</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.535846692858603e-06</v>
+        <v>4.875680249906057e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.258333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>559322.0023053074</v>
+        <v>602457.4280296331</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2044.243728742414</v>
+        <v>2128.723124617408</v>
       </c>
       <c r="AB2" t="n">
-        <v>2797.024455333698</v>
+        <v>2912.612891737775</v>
       </c>
       <c r="AC2" t="n">
-        <v>2530.080366965128</v>
+        <v>2634.637205228189</v>
       </c>
       <c r="AD2" t="n">
-        <v>2044243.728742414</v>
+        <v>2128723.124617408</v>
       </c>
       <c r="AE2" t="n">
-        <v>2797024.455333698</v>
+        <v>2912612.891737775</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.135230885616384e-06</v>
+        <v>2.114849036699968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.49270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2530080.366965128</v>
+        <v>2634637.205228189</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>722.1147744003616</v>
+        <v>770.3156039572477</v>
       </c>
       <c r="AB3" t="n">
-        <v>988.0292917900358</v>
+        <v>1053.979793260288</v>
       </c>
       <c r="AC3" t="n">
-        <v>893.7331628894143</v>
+        <v>953.3894410614563</v>
       </c>
       <c r="AD3" t="n">
-        <v>722114.7744003616</v>
+        <v>770315.6039572477</v>
       </c>
       <c r="AE3" t="n">
-        <v>988029.2917900358</v>
+        <v>1053979.793260288</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.047091859930788e-06</v>
+        <v>3.8135768704534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.482291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>893733.1628894144</v>
+        <v>953389.4410614563</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>531.0375231517177</v>
+        <v>567.2308381238056</v>
       </c>
       <c r="AB4" t="n">
-        <v>726.5889668982566</v>
+        <v>776.110257179432</v>
       </c>
       <c r="AC4" t="n">
-        <v>657.2443356715062</v>
+        <v>702.0393835118136</v>
       </c>
       <c r="AD4" t="n">
-        <v>531037.5231517176</v>
+        <v>567230.8381238056</v>
       </c>
       <c r="AE4" t="n">
-        <v>726588.9668982566</v>
+        <v>776110.257179432</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.391925593968408e-06</v>
+        <v>4.455975962559802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.404166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>657244.3356715061</v>
+        <v>702039.3835118136</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>479.3742980752706</v>
+        <v>515.5676130473587</v>
       </c>
       <c r="AB5" t="n">
-        <v>655.901063128031</v>
+        <v>705.4223534092064</v>
       </c>
       <c r="AC5" t="n">
-        <v>593.3027862260147</v>
+        <v>638.0978340663222</v>
       </c>
       <c r="AD5" t="n">
-        <v>479374.2980752706</v>
+        <v>515567.6130473586</v>
       </c>
       <c r="AE5" t="n">
-        <v>655901.063128031</v>
+        <v>705422.3534092064</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.500743062278786e-06</v>
+        <v>4.658694652606172e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>593302.7862260147</v>
+        <v>638097.8340663222</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>481.5325699668921</v>
+        <v>517.7258849389801</v>
       </c>
       <c r="AB6" t="n">
-        <v>658.8541059463832</v>
+        <v>708.3753962275586</v>
       </c>
       <c r="AC6" t="n">
-        <v>595.973994782405</v>
+        <v>640.7690426227125</v>
       </c>
       <c r="AD6" t="n">
-        <v>481532.5699668921</v>
+        <v>517725.8849389802</v>
       </c>
       <c r="AE6" t="n">
-        <v>658854.1059463832</v>
+        <v>708375.3962275586</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.500596011645934e-06</v>
+        <v>4.658420708430434e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.126041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>595973.9947824051</v>
+        <v>640769.0426227126</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>735.2565018026712</v>
+        <v>790.773578393645</v>
       </c>
       <c r="AB2" t="n">
-        <v>1006.010382993971</v>
+        <v>1081.971296426301</v>
       </c>
       <c r="AC2" t="n">
-        <v>909.9981639854657</v>
+        <v>978.7094744516261</v>
       </c>
       <c r="AD2" t="n">
-        <v>735256.5018026712</v>
+        <v>790773.578393645</v>
       </c>
       <c r="AE2" t="n">
-        <v>1006010.382993971</v>
+        <v>1081971.296426301</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.931148484477473e-06</v>
+        <v>3.870982029178527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.581249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>909998.1639854657</v>
+        <v>978709.4744516261</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>423.5030686595868</v>
+        <v>456.9498599814855</v>
       </c>
       <c r="AB3" t="n">
-        <v>579.4555821768118</v>
+        <v>625.2189576317265</v>
       </c>
       <c r="AC3" t="n">
-        <v>524.1531546848737</v>
+        <v>565.548937815672</v>
       </c>
       <c r="AD3" t="n">
-        <v>423503.0686595868</v>
+        <v>456949.8599814855</v>
       </c>
       <c r="AE3" t="n">
-        <v>579455.5821768119</v>
+        <v>625218.9576317265</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.54728968889145e-06</v>
+        <v>5.106035443710898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.505208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>524153.1546848736</v>
+        <v>565548.937815672</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>425.9446768500084</v>
+        <v>459.3914681719071</v>
       </c>
       <c r="AB4" t="n">
-        <v>582.7962982190979</v>
+        <v>628.5596736740125</v>
       </c>
       <c r="AC4" t="n">
-        <v>527.1750374768081</v>
+        <v>568.5708206076067</v>
       </c>
       <c r="AD4" t="n">
-        <v>425944.6768500084</v>
+        <v>459391.4681719071</v>
       </c>
       <c r="AE4" t="n">
-        <v>582796.2982190979</v>
+        <v>628559.6736740125</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.54728968889145e-06</v>
+        <v>5.106035443710898e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.505208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>527175.0374768082</v>
+        <v>568570.8206076067</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>468.1375020974036</v>
+        <v>510.5479059242997</v>
       </c>
       <c r="AB2" t="n">
-        <v>640.526383138662</v>
+        <v>698.5541686695882</v>
       </c>
       <c r="AC2" t="n">
-        <v>579.3954441163321</v>
+        <v>631.8851392386953</v>
       </c>
       <c r="AD2" t="n">
-        <v>468137.5020974036</v>
+        <v>510547.9059242997</v>
       </c>
       <c r="AE2" t="n">
-        <v>640526.383138662</v>
+        <v>698554.1686695882</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.37353852267081e-06</v>
+        <v>4.965591025582311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.272916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>579395.4441163321</v>
+        <v>631885.1392386953</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.5445414995299</v>
+        <v>453.0401966724465</v>
       </c>
       <c r="AB3" t="n">
-        <v>561.7251536265517</v>
+        <v>619.8695838101273</v>
       </c>
       <c r="AC3" t="n">
-        <v>508.1148933506375</v>
+        <v>560.7101007237129</v>
       </c>
       <c r="AD3" t="n">
-        <v>410544.54149953</v>
+        <v>453040.1966724466</v>
       </c>
       <c r="AE3" t="n">
-        <v>561725.1536265516</v>
+        <v>619869.5838101273</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.516053577442639e-06</v>
+        <v>5.263741432759633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.860416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>508114.8933506375</v>
+        <v>560710.1007237129</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>416.0508799602787</v>
+        <v>456.9418285712624</v>
       </c>
       <c r="AB2" t="n">
-        <v>569.2591688310564</v>
+        <v>625.2079687019384</v>
       </c>
       <c r="AC2" t="n">
-        <v>514.929872718081</v>
+        <v>565.53899765392</v>
       </c>
       <c r="AD2" t="n">
-        <v>416050.8799602787</v>
+        <v>456941.8285712624</v>
       </c>
       <c r="AE2" t="n">
-        <v>569259.1688310564</v>
+        <v>625207.9687019384</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.442802316920414e-06</v>
+        <v>5.310299911257059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.310416666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>514929.8727180811</v>
+        <v>565538.99765392</v>
       </c>
     </row>
     <row r="3">
@@ -13854,28 +13854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>419.462793529499</v>
+        <v>460.3537421404828</v>
       </c>
       <c r="AB3" t="n">
-        <v>573.927499499467</v>
+        <v>629.876299370349</v>
       </c>
       <c r="AC3" t="n">
-        <v>519.1526644595417</v>
+        <v>569.7617893953808</v>
       </c>
       <c r="AD3" t="n">
-        <v>419462.793529499</v>
+        <v>460353.7421404828</v>
       </c>
       <c r="AE3" t="n">
-        <v>573927.499499467</v>
+        <v>629876.299370349</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.442288042748431e-06</v>
+        <v>5.309181953381006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.311458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>519152.6644595417</v>
+        <v>569761.7893953808</v>
       </c>
     </row>
   </sheetData>
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>465.5976008704877</v>
+        <v>503.6471997432009</v>
       </c>
       <c r="AB2" t="n">
-        <v>637.0511782274615</v>
+        <v>689.1123180349383</v>
       </c>
       <c r="AC2" t="n">
-        <v>576.251907884376</v>
+        <v>623.344405576896</v>
       </c>
       <c r="AD2" t="n">
-        <v>465597.6008704877</v>
+        <v>503647.1997432009</v>
       </c>
       <c r="AE2" t="n">
-        <v>637051.1782274615</v>
+        <v>689112.3180349383</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.096025725471247e-06</v>
+        <v>4.985453704271358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.143749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>576251.907884376</v>
+        <v>623344.4055768959</v>
       </c>
     </row>
   </sheetData>
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1086.977237546628</v>
+        <v>1144.508267706376</v>
       </c>
       <c r="AB2" t="n">
-        <v>1487.250210462591</v>
+        <v>1565.966704017078</v>
       </c>
       <c r="AC2" t="n">
-        <v>1345.309137744821</v>
+        <v>1416.51303963376</v>
       </c>
       <c r="AD2" t="n">
-        <v>1086977.237546628</v>
+        <v>1144508.267706376</v>
       </c>
       <c r="AE2" t="n">
-        <v>1487250.21046259</v>
+        <v>1565966.704017078</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.592397886275737e-06</v>
+        <v>3.090172615852265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.06458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1345309.137744821</v>
+        <v>1416513.03963376</v>
       </c>
     </row>
     <row r="3">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>487.9260332532341</v>
+        <v>522.5811430112665</v>
       </c>
       <c r="AB3" t="n">
-        <v>667.6019244744498</v>
+        <v>715.0185745209296</v>
       </c>
       <c r="AC3" t="n">
-        <v>603.8869337877934</v>
+        <v>646.7782053035234</v>
       </c>
       <c r="AD3" t="n">
-        <v>487926.0332532341</v>
+        <v>522581.1430112665</v>
       </c>
       <c r="AE3" t="n">
-        <v>667601.9244744498</v>
+        <v>715018.5745209296</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.428372155880151e-06</v>
+        <v>4.712446055017921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>603886.9337877934</v>
+        <v>646778.2053035233</v>
       </c>
     </row>
     <row r="4">
@@ -14660,28 +14660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>443.4983553144747</v>
+        <v>477.9828728719149</v>
       </c>
       <c r="AB4" t="n">
-        <v>606.8140155078191</v>
+        <v>653.997253779452</v>
       </c>
       <c r="AC4" t="n">
-        <v>548.900537536572</v>
+        <v>591.5806737696508</v>
       </c>
       <c r="AD4" t="n">
-        <v>443498.3553144747</v>
+        <v>477982.8728719149</v>
       </c>
       <c r="AE4" t="n">
-        <v>606814.0155078191</v>
+        <v>653997.2537794519</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.539927713668335e-06</v>
+        <v>4.928928337991434e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.310416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>548900.537536572</v>
+        <v>591580.6737696509</v>
       </c>
     </row>
   </sheetData>
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1791.484823872259</v>
+        <v>1875.307297946559</v>
       </c>
       <c r="AB2" t="n">
-        <v>2451.188570754463</v>
+        <v>2565.878177769485</v>
       </c>
       <c r="AC2" t="n">
-        <v>2217.250573826423</v>
+        <v>2320.994365715806</v>
       </c>
       <c r="AD2" t="n">
-        <v>1791484.823872259</v>
+        <v>1875307.297946559</v>
       </c>
       <c r="AE2" t="n">
-        <v>2451188.570754463</v>
+        <v>2565878.177769485</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.218365592117915e-06</v>
+        <v>2.286131729428671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.67604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2217250.573826422</v>
+        <v>2320994.365715805</v>
       </c>
     </row>
     <row r="3">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>677.7164002484704</v>
+        <v>725.4931308643761</v>
       </c>
       <c r="AB3" t="n">
-        <v>927.2814775573901</v>
+        <v>992.6517081466686</v>
       </c>
       <c r="AC3" t="n">
-        <v>838.7830347870397</v>
+        <v>897.9144223165724</v>
       </c>
       <c r="AD3" t="n">
-        <v>677716.4002484705</v>
+        <v>725493.1308643761</v>
       </c>
       <c r="AE3" t="n">
-        <v>927281.4775573901</v>
+        <v>992651.7081466686</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.111566800213122e-06</v>
+        <v>3.962127535450128e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.314583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>838783.0347870397</v>
+        <v>897914.4223165724</v>
       </c>
     </row>
     <row r="4">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>496.4613611305631</v>
+        <v>532.3366018969159</v>
       </c>
       <c r="AB4" t="n">
-        <v>679.2803366283015</v>
+        <v>728.3664237487466</v>
       </c>
       <c r="AC4" t="n">
-        <v>614.450774676436</v>
+        <v>658.8521545348615</v>
       </c>
       <c r="AD4" t="n">
-        <v>496461.3611305631</v>
+        <v>532336.6018969159</v>
       </c>
       <c r="AE4" t="n">
-        <v>679280.3366283015</v>
+        <v>728366.4237487465</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.455858500943048e-06</v>
+        <v>4.608153807293061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.288541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>614450.774676436</v>
+        <v>658852.1545348614</v>
       </c>
     </row>
     <row r="5">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>472.8509840582107</v>
+        <v>508.7262248245636</v>
       </c>
       <c r="AB5" t="n">
-        <v>646.9755771015862</v>
+        <v>696.0616642220311</v>
       </c>
       <c r="AC5" t="n">
-        <v>585.2291360589355</v>
+        <v>629.6305159173611</v>
       </c>
       <c r="AD5" t="n">
-        <v>472850.9840582107</v>
+        <v>508726.2248245636</v>
       </c>
       <c r="AE5" t="n">
-        <v>646975.5771015862</v>
+        <v>696061.6642220311</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.509830154287446e-06</v>
+        <v>4.709425798227957e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.154166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>585229.1360589355</v>
+        <v>629630.5159173611</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>531.0067496144494</v>
+        <v>576.8078039391675</v>
       </c>
       <c r="AB2" t="n">
-        <v>726.5468611869337</v>
+        <v>789.2138843139229</v>
       </c>
       <c r="AC2" t="n">
-        <v>657.2062484701762</v>
+        <v>713.8924188636448</v>
       </c>
       <c r="AD2" t="n">
-        <v>531006.7496144495</v>
+        <v>576807.8039391674</v>
       </c>
       <c r="AE2" t="n">
-        <v>726546.8611869337</v>
+        <v>789213.884313923</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.78005743612903e-06</v>
+        <v>4.451788560033539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.14895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>657206.2484701762</v>
+        <v>713892.4188636448</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>548.4523535948283</v>
+        <v>591.7081414921998</v>
       </c>
       <c r="AB2" t="n">
-        <v>750.4167061986169</v>
+        <v>809.6011835104811</v>
       </c>
       <c r="AC2" t="n">
-        <v>678.7979889754821</v>
+        <v>732.3339828386374</v>
       </c>
       <c r="AD2" t="n">
-        <v>548452.3535948283</v>
+        <v>591708.1414921999</v>
       </c>
       <c r="AE2" t="n">
-        <v>750416.7061986169</v>
+        <v>809601.183510481</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.208629046536692e-06</v>
+        <v>4.548193260654515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.701041666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>678797.9889754821</v>
+        <v>732333.9828386374</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>413.5805203030172</v>
+        <v>456.7509673458172</v>
       </c>
       <c r="AB3" t="n">
-        <v>565.879113763415</v>
+        <v>624.9468239530814</v>
       </c>
       <c r="AC3" t="n">
-        <v>511.8724053621582</v>
+        <v>565.3027761933749</v>
       </c>
       <c r="AD3" t="n">
-        <v>413580.5203030172</v>
+        <v>456750.9673458172</v>
       </c>
       <c r="AE3" t="n">
-        <v>565879.113763415</v>
+        <v>624946.8239530814</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.534575336879556e-06</v>
+        <v>5.219409064592882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.711458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>511872.4053621582</v>
+        <v>565302.7761933749</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>845.7462088817072</v>
+        <v>890.7915277053525</v>
       </c>
       <c r="AB2" t="n">
-        <v>1157.187274681361</v>
+        <v>1218.820267155086</v>
       </c>
       <c r="AC2" t="n">
-        <v>1046.746945308312</v>
+        <v>1102.497771482792</v>
       </c>
       <c r="AD2" t="n">
-        <v>845746.2088817072</v>
+        <v>890791.5277053524</v>
       </c>
       <c r="AE2" t="n">
-        <v>1157187.274681361</v>
+        <v>1218820.267155085</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.809789944027746e-06</v>
+        <v>3.585527082772103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.048958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1046746.945308312</v>
+        <v>1102497.771482792</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>429.1726797795426</v>
+        <v>462.8713504198427</v>
       </c>
       <c r="AB3" t="n">
-        <v>587.2129942367252</v>
+        <v>633.3210020872077</v>
       </c>
       <c r="AC3" t="n">
-        <v>531.1702102253851</v>
+        <v>572.877734519613</v>
       </c>
       <c r="AD3" t="n">
-        <v>429172.6797795426</v>
+        <v>462871.3504198427</v>
       </c>
       <c r="AE3" t="n">
-        <v>587212.9942367251</v>
+        <v>633321.0020872077</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.549365297750839e-06</v>
+        <v>5.050762023034459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.423958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>531170.210225385</v>
+        <v>572877.734519613</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>431.2630287646919</v>
+        <v>464.9616994049919</v>
       </c>
       <c r="AB4" t="n">
-        <v>590.0731019378951</v>
+        <v>636.1811097883775</v>
       </c>
       <c r="AC4" t="n">
-        <v>533.7573532617415</v>
+        <v>575.4648775559696</v>
       </c>
       <c r="AD4" t="n">
-        <v>431263.0287646918</v>
+        <v>464961.6994049919</v>
       </c>
       <c r="AE4" t="n">
-        <v>590073.1019378951</v>
+        <v>636181.1097883775</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.547793071233571e-06</v>
+        <v>5.047647152838323e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.428125000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>533757.3532617415</v>
+        <v>575464.8775559695</v>
       </c>
     </row>
   </sheetData>
